--- a/xlsx/distribuidores.xlsx
+++ b/xlsx/distribuidores.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yellowhat\proyectos\registroToyotaGarra\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DB6CD3-742E-4B3F-8E07-C49D40E17AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362F5486-181B-46CF-A31D-2F9981F87853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="38700" windowHeight="15345" xr2:uid="{039AD593-B825-419C-9CB1-30AEEB789663}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{039AD593-B825-419C-9CB1-30AEEB789663}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="version1" sheetId="1" r:id="rId1"/>
+    <sheet name="version2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="158">
   <si>
     <t>Toyota Aguascalientes</t>
   </si>
@@ -432,13 +433,482 @@
   </si>
   <si>
     <t>Sucursal</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDOR</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Aguascalientes Sur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Toyota </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mexicali CSC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tijuana Oriente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Delicias</t>
+    </r>
+  </si>
+  <si>
+    <t>Toyota Bosques</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tepepan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Manzanillo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Toyota </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Guanajuato</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bajío sur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tulancingo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cd Guzman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cuautla</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cuernavaca Norte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Toyota </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Innova Cumbres</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Toyota </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carretera Nacional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Serdán</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Tehuacán</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Corregidora</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Industrias</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Guasave</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Solana Morelos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Matamoros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toyota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Riviera Veracruzana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Toyota </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Altabrisa</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +920,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -517,9 +999,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,17 +1013,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -610,6 +1087,12 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -624,11 +1107,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79ECA437-A47D-4C21-B5D4-8E378788D8A9}" name="Tabla1" displayName="Tabla1" ref="A1:B101" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79ECA437-A47D-4C21-B5D4-8E378788D8A9}" name="Tabla1" displayName="Tabla1" ref="A1:B101" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:B101" xr:uid="{79ECA437-A47D-4C21-B5D4-8E378788D8A9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C3DC9A6B-9C94-4523-8BDD-49BBA6951F43}" name="Sucursal" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B3D5158E-1CEB-4D7B-ADA7-717CBA3B5502}" name="Estado" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C3DC9A6B-9C94-4523-8BDD-49BBA6951F43}" name="Sucursal" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B3D5158E-1CEB-4D7B-ADA7-717CBA3B5502}" name="Estado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -964,810 +1447,810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1777,4 +2260,823 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24B7488-9583-48F7-8B24-F73CCF931A5D}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>